--- a/Client2D/Bin/Data/Datatable.xlsx
+++ b/Client2D/Bin/Data/Datatable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C++_Client\MapleStory_DX11\Client2D\Bin\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955EB00E-64CF-4394-8BD0-2E3D9AD3375C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A741F8-598D-4C36-AE83-3349F81B0CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>DuelBlade</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>Taurospear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Balrog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BalrogLeft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BalrogRight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +466,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AA8CCA-4B42-45E0-872E-B59E2D0A110E}">
-  <dimension ref="A2:G5"/>
+  <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -516,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -539,7 +551,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="C5">
         <v>25</v>
@@ -554,6 +566,75 @@
         <v>10</v>
       </c>
       <c r="G5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>250</v>
+      </c>
+      <c r="C7">
+        <v>250</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>250</v>
+      </c>
+      <c r="C8">
+        <v>250</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
         <v>15</v>
       </c>
     </row>

--- a/Client2D/Bin/Data/Datatable.xlsx
+++ b/Client2D/Bin/Data/Datatable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C++_Client\MapleStory_DX11\Client2D\Bin\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A741F8-598D-4C36-AE83-3349F81B0CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA4DD4B-C43B-4455-BC4D-FBA12547C20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>DuelBlade</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,10 @@
   </si>
   <si>
     <t>BalrogRight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jr_Balrog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AA8CCA-4B42-45E0-872E-B59E2D0A110E}">
-  <dimension ref="A2:G8"/>
+  <dimension ref="A2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -571,53 +575,53 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C6">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="C7">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>250</v>
@@ -635,11 +639,35 @@
         <v>15</v>
       </c>
       <c r="G8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>250</v>
+      </c>
+      <c r="C9">
+        <v>250</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>